--- a/BOM/ATX2AT_SC_1.02_2020-03-04_BOM_PROD.xlsx
+++ b/BOM/ATX2AT_SC_1.02_2020-03-04_BOM_PROD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\ATX2AT\Git\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A866A63-EEAE-4626-96D3-1CFFFB20B870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C1CB3E-D098-46C5-A56F-223E88758808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{CA4BD052-6544-4C13-A5C2-FAE997A0CF9A}"/>
+    <workbookView xWindow="7470" yWindow="1695" windowWidth="25890" windowHeight="17220" xr2:uid="{CA4BD052-6544-4C13-A5C2-FAE997A0CF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="150">
   <si>
     <t>Designator</t>
   </si>
@@ -203,9 +203,6 @@
     <t>0603</t>
   </si>
   <si>
-    <t>C3, C10, C15, C18, C19</t>
-  </si>
-  <si>
     <t>100nF 16V 0402 X7R Ceramic Capacitor</t>
   </si>
   <si>
@@ -227,18 +224,9 @@
     <t>C7</t>
   </si>
   <si>
-    <t xml:space="preserve">AVX TAJD107K016RNJ </t>
-  </si>
-  <si>
-    <t>SMC_E</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
-    <t>AVX T491D476K025AT</t>
-  </si>
-  <si>
     <t>C9, C17</t>
   </si>
   <si>
@@ -266,15 +254,6 @@
     <t>1uF 16V 0603 X7R Ceramic Capacitor (USB Cap)</t>
   </si>
   <si>
-    <t>C14, C16</t>
-  </si>
-  <si>
-    <t>??? nF 0402 X7R Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>EXACT VALUE TBD (IN PROGRESS - Inrush limiters)</t>
-  </si>
-  <si>
     <t>R1, R2</t>
   </si>
   <si>
@@ -284,15 +263,6 @@
     <t>820 Ohm (Input RC Resistor for opamp output)</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>270 Ohm 0603 Resistor</t>
-  </si>
-  <si>
-    <t>270 Ohm (Blue LED Current limiter)</t>
-  </si>
-  <si>
     <t>R4, R5, R6, R7, R15, R19</t>
   </si>
   <si>
@@ -332,9 +302,6 @@
     <t>10K Ohm 0402 Resistor</t>
   </si>
   <si>
-    <t>10K Ohm 0603 Resistor (Pullup/down) - R24 Voltage Divider for +5V / R25 for +12V</t>
-  </si>
-  <si>
     <t>R13, R16</t>
   </si>
   <si>
@@ -344,15 +311,9 @@
     <t>2.2K Ohm 0402 Resistor (MOSFET Gate Pull up)</t>
   </si>
   <si>
-    <t>R14</t>
-  </si>
-  <si>
     <t>1K Ohm 0603 Resistor</t>
   </si>
   <si>
-    <t>1K Ohm 0402 Resistor (RED Led Current Limiter)</t>
-  </si>
-  <si>
     <t>R23</t>
   </si>
   <si>
@@ -365,12 +326,6 @@
     <t>R26</t>
   </si>
   <si>
-    <t>39K Ohm 0402 Resistor</t>
-  </si>
-  <si>
-    <t>39K Ohm 0402 Resistor (Voltage Divider for +12V)</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -407,33 +362,15 @@
     <t>CONFIG</t>
   </si>
   <si>
-    <t>POWER</t>
-  </si>
-  <si>
     <t>Standard 6x6mm Tactile SMD Pushbutton</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>ATMEGA32U4-AU</t>
-  </si>
-  <si>
     <t>Atmel MCU, 32KByte</t>
   </si>
   <si>
-    <t>TI INA2180A2IDGKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TI REF3030AIDBZR </t>
-  </si>
-  <si>
     <t>ON Semi MC79M05BDTG</t>
   </si>
   <si>
-    <t>Vishay SI7145DP-T1-GE3</t>
-  </si>
-  <si>
     <t>2N7002DW-TP</t>
   </si>
   <si>
@@ -443,12 +380,6 @@
     <t>Yangxing X322516MOB4SI</t>
   </si>
   <si>
-    <t>TechFuse nSMD050-24V</t>
-  </si>
-  <si>
-    <t>Resettable Fuse PPTC (&gt;20V / 500 mA Hold Current)</t>
-  </si>
-  <si>
     <t>OMNIFUSE 0154005</t>
   </si>
   <si>
@@ -464,12 +395,6 @@
     <t>AVX TAJC226K025RNJ</t>
   </si>
   <si>
-    <t>16V/100 µF/Case D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220uF 25V / 47 µF / Case D </t>
-  </si>
-  <si>
     <t xml:space="preserve">LR2512-23R010F4 </t>
   </si>
   <si>
@@ -482,12 +407,6 @@
     <t>A2541HWV-4P</t>
   </si>
   <si>
-    <t>2.54mm FEMALE PIN Header 1x4</t>
-  </si>
-  <si>
-    <t>2.54mm MALE PIN Header 1x2</t>
-  </si>
-  <si>
     <t>Wurth 629105150521</t>
   </si>
   <si>
@@ -498,13 +417,235 @@
   </si>
   <si>
     <t>SKRAALE010</t>
+  </si>
+  <si>
+    <t>Pins</t>
+  </si>
+  <si>
+    <r>
+      <t>ATMEGA32U4-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TI INA2180</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IDGKR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TI REF</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AIDBZR </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vishay </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI7145DP-T1-GE3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TechFuse nSMD050-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Resettable Fuse PPTC (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;20V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 500 mA Hold Current)</t>
+    </r>
+  </si>
+  <si>
+    <t>C3, C10, C14, C15, C16, C18, C19</t>
+  </si>
+  <si>
+    <t>AVX TAJE107M025RNJ</t>
+  </si>
+  <si>
+    <t>100uF 16V Tantalum Capacitor (+5V Main Filtering Cap)</t>
+  </si>
+  <si>
+    <t>SMC_D</t>
+  </si>
+  <si>
+    <t>AVX TAJE227K016RNJ</t>
+  </si>
+  <si>
+    <t>47uF 25V Tantalum Capacitor (+12V Main Filtering Cap)</t>
+  </si>
+  <si>
+    <t>R3, R14</t>
+  </si>
+  <si>
+    <t>1K Ohm 0402 Resistor (RED/Blue Led Current Limiter)</t>
+  </si>
+  <si>
+    <t>10K Ohm 0603 Resistor (Pullup/down)
+R24 Voltage Divider for +5V / R25 for +12V</t>
+  </si>
+  <si>
+    <t>47K Ohm 0402 Resistor</t>
+  </si>
+  <si>
+    <t>47K Ohm 0402 Resistor (Voltage Divider for +12V)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.54mm </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEMALE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PIN Header 1x4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.54mm </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MALE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PIN Header 1x2</t>
+    </r>
+  </si>
+  <si>
+    <t>4+5</t>
+  </si>
+  <si>
+    <t>POWER (S1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +668,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -536,7 +694,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -544,40 +702,52 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218242F2-B93A-4141-B6C9-39624275FD69}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,20 +1075,22 @@
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="74.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -928,996 +1100,950 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
+      <c r="G2" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
+      <c r="G3" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
+      <c r="G4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>131</v>
+      <c r="C5" t="s">
+        <v>111</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
+      <c r="G5" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5">
-        <v>2</v>
+      <c r="G6" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D10" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
         <v>1206</v>
       </c>
-      <c r="G10" s="5">
-        <v>1</v>
+      <c r="G10" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
         <v>1206</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
+      <c r="G11" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5">
-        <v>1</v>
+      <c r="G12" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="5">
-        <v>1</v>
+      <c r="G13" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="5">
-        <v>1</v>
+      <c r="G14" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="5">
-        <v>1</v>
+      <c r="G15" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="5">
-        <v>1</v>
+      <c r="G16" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="5">
-        <v>1</v>
+      <c r="G17" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="5">
-        <v>3</v>
+      <c r="G18" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D24" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="5">
-        <v>1</v>
+      <c r="G25" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D28" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="5">
-        <v>1</v>
+      <c r="G28" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2512</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2512</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>7</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="C32" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="D32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2512</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="5">
-        <v>2512</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="F36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C39" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="C40" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="F40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="5">
-        <v>402</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>122</v>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
+      <c r="G42" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
